--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +3175,137 @@
         <v/>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20210531174629.355947</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.865 ± 15.932</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>35.80066666666666</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7145663992162589</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10.153 ± 9.679</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6.599 ± 2.673</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.753 ± 0.707</t>
+        </is>
+      </c>
+      <c r="K22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>4:56:38</t>
+        </is>
+      </c>
+      <c r="AB22">
+        <f>HYPERLINK("data/plots/20210531174629.355947/test/20210531174629.355947_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,6 +3305,136 @@
         <v/>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20210601035747.712507</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>rl</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[8, 16][8]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.974 ± 20.460</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>37.02633333333333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.110536173561888</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>12.274 ± 14.511</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>6.334 ± 2.698</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.802 ± 0.734</t>
+        </is>
+      </c>
+      <c r="K23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/train/actions_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/train/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="M23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/test/rewards_per_intersection.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/loss.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="O23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/train/rewards.png", "Image")</f>
+        <v/>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>7200000</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>120000</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>DQN</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>(delay,)</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>reward_min_delay</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>4:56:57</t>
+        </is>
+      </c>
+      <c r="AB23">
+        <f>HYPERLINK("data/plots/20210601035747.712507/test/20210601035747.712507_metrics.csv", "File")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
